--- a/biology/Microbiologie/Protocaviellidae/Protocaviellidae.xlsx
+++ b/biology/Microbiologie/Protocaviellidae/Protocaviellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Protocaviellidae sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Trichostomatida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Protocaviella, composé du préfixe prot- (du grec ancien πρό / pró, « avant »), et -caviella, source d'ambigüité avec le genre Caviella Osgood, 1915, ancienne désignation d'un mammifère de la famille des Caviidae[note 1]. On peut peut-être interpréter ce nom par le sens littéral suivant « anciennement appelé Caviella » ou par « protozoaire (vivant dans) Caviella ».
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Protocaviellidae ont une taille petite (&lt; 80 μm) à moyenne (80 à 200 μm). Leur forme va de ovoïde à allongée. Ils nagent librement. Leur ciliation somatique varie de clairsemée, légèrement uniforme (holotriche), à holotriche dense. Leur cinéties (rangées de cils) sont parfois légèrement en spirale, avec des cils plus longs en touffe ou en bande antérieure à la région buccale. Ils n’ont pas de vacuole concrétionnelle[note 2]. Leur région orale est subapicale à subéquatoriale ; la cavité buccale elle-même étant en forme d'entonnoir ou de trompette. La ciliature adorale est absente chez les genres Enterophrya et Ogimotopsis. Le macronoyau varie de globuleux à ellipsoïde allongé. Micronoyau, vacuole contractile et cytoprocte sont présents. Ils se nourrissant de bactéries et de détritus organiques[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Protocaviellidae ont une taille petite (&lt; 80 μm) à moyenne (80 à 200 μm). Leur forme va de ovoïde à allongée. Ils nagent librement. Leur ciliation somatique varie de clairsemée, légèrement uniforme (holotriche), à holotriche dense. Leur cinéties (rangées de cils) sont parfois légèrement en spirale, avec des cils plus longs en touffe ou en bande antérieure à la région buccale. Ils n’ont pas de vacuole concrétionnelle[note 2]. Leur région orale est subapicale à subéquatoriale ; la cavité buccale elle-même étant en forme d'entonnoir ou de trompette. La ciliature adorale est absente chez les genres Enterophrya et Ogimotopsis. Le macronoyau varie de globuleux à ellipsoïde allongé. Micronoyau, vacuole contractile et cytoprocte sont présents. Ils se nourrissant de bactéries et de détritus organiques.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Protocaviellidae vivent dans les habitats terrestres comme en tant que endocommensaux dans l'intestin postérieur des capybaras, cobayes et les mammifères lagomorphes (lapins, lièvres)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Protocaviellidae vivent dans les habitats terrestres comme en tant que endocommensaux dans l'intestin postérieur des capybaras, cobayes et les mammifères lagomorphes (lapins, lièvres).
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (18 juin 2023)[2] : aucun genre référencé.
-Selon Lynn (2008)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (18 juin 2023) : aucun genre référencé.
+Selon Lynn (2008) :
 Cunhamunizia Ito &amp; Imai, 2000
 Enterophrya Hasselmann, 1918
 Hydrochoerella da Cunha &amp; Muniz, 1925
@@ -646,9 +666,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Protocaviellidae Grain in Corliss, 1979[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Protocaviellidae Grain in Corliss, 1979.
 </t>
         </is>
       </c>
